--- a/影视工作/南宁项目财务/锦绣南宁支出.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁支出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
@@ -1155,9 +1155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1600,7 +1600,7 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <v>3816.47</v>
+        <v>456.47</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D26">
         <f>SUM(D19:D25)</f>
-        <v>6486.3</v>
+        <v>3126.2999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D32">
         <f>D15+D26+D29</f>
-        <v>23380.22</v>
+        <v>20020.22</v>
       </c>
     </row>
   </sheetData>
